--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H2">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N2">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O2">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P2">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q2">
-        <v>0.06484717762666668</v>
+        <v>0.063902185402</v>
       </c>
       <c r="R2">
-        <v>0.5836245986400002</v>
+        <v>0.575119668618</v>
       </c>
       <c r="S2">
-        <v>0.001381316805053622</v>
+        <v>0.001351059977194825</v>
       </c>
       <c r="T2">
-        <v>0.001381316805053621</v>
+        <v>0.001351059977194825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H3">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P3">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q3">
-        <v>0.648273582468889</v>
+        <v>1.631392360406111</v>
       </c>
       <c r="R3">
-        <v>5.83446224222</v>
+        <v>14.682531243655</v>
       </c>
       <c r="S3">
-        <v>0.01380894630282803</v>
+        <v>0.03449191778622816</v>
       </c>
       <c r="T3">
-        <v>0.01380894630282802</v>
+        <v>0.03449191778622816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H4">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q4">
-        <v>0.5360853531408889</v>
+        <v>1.349068623634111</v>
       </c>
       <c r="R4">
-        <v>4.824768178268</v>
+        <v>12.141617612707</v>
       </c>
       <c r="S4">
-        <v>0.01141921259086691</v>
+        <v>0.02852285273837146</v>
       </c>
       <c r="T4">
-        <v>0.01141921259086691</v>
+        <v>0.02852285273837147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J5">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N5">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O5">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P5">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q5">
-        <v>0.5579253134533335</v>
+        <v>0.218474421556</v>
       </c>
       <c r="R5">
-        <v>5.021327821080001</v>
+        <v>1.966269794004</v>
       </c>
       <c r="S5">
-        <v>0.01188442796808755</v>
+        <v>0.004619122885206735</v>
       </c>
       <c r="T5">
-        <v>0.01188442796808755</v>
+        <v>0.004619122885206736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J6">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.829335</v>
       </c>
       <c r="O6">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P6">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q6">
         <v>5.577547935621111</v>
@@ -818,10 +818,10 @@
         <v>50.19793142059</v>
       </c>
       <c r="S6">
-        <v>0.1188079570528196</v>
+        <v>0.1179240074388357</v>
       </c>
       <c r="T6">
-        <v>0.1188079570528195</v>
+        <v>0.1179240074388357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J7">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.339699</v>
       </c>
       <c r="O7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q7">
         <v>4.612314670205111</v>
@@ -880,10 +880,10 @@
         <v>41.510832031846</v>
       </c>
       <c r="S7">
-        <v>0.09824741796518435</v>
+        <v>0.09751644194859793</v>
       </c>
       <c r="T7">
-        <v>0.09824741796518434</v>
+        <v>0.09751644194859795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I8">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J8">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N8">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O8">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P8">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q8">
-        <v>1.814223200260001</v>
+        <v>0.7104201130379999</v>
       </c>
       <c r="R8">
-        <v>16.32800880234</v>
+        <v>6.393781017341999</v>
       </c>
       <c r="S8">
-        <v>0.03864496630932428</v>
+        <v>0.01502014642663262</v>
       </c>
       <c r="T8">
-        <v>0.03864496630932427</v>
+        <v>0.01502014642663262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I9">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J9">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.829335</v>
       </c>
       <c r="O9">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P9">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q9">
-        <v>18.13668715393834</v>
+        <v>18.13668715393833</v>
       </c>
       <c r="R9">
         <v>163.230184385445</v>
       </c>
       <c r="S9">
-        <v>0.3863315516669917</v>
+        <v>0.3834571850467995</v>
       </c>
       <c r="T9">
-        <v>0.3863315516669915</v>
+        <v>0.3834571850467995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I10">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J10">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.339699</v>
       </c>
       <c r="O10">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P10">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q10">
         <v>14.99800794087033</v>
@@ -1066,10 +1066,10 @@
         <v>134.982071467833</v>
       </c>
       <c r="S10">
-        <v>0.3194742033388442</v>
+        <v>0.3170972657521332</v>
       </c>
       <c r="T10">
-        <v>0.3194742033388441</v>
+        <v>0.3170972657521332</v>
       </c>
     </row>
   </sheetData>
